--- a/03.crawler/18.Auveco/file/1.page.xlsx
+++ b/03.crawler/18.Auveco/file/1.page.xlsx
@@ -461,7 +461,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://www.auveco.com/api/cacheable/items?commercecategoryurl=/products/assortments/cabinetandcompartmentbinassortments&amp;country=US&amp;currency=USD&amp;fieldset=search&amp;include=facets&amp;language=en&amp;pricelevel=1&amp;sort=commercecategory%3Adesc&amp;use_pcv=T</t>
+          <t>https://www.auveco.com/products/assortments/cabinetandcompartmentbinassortments?show=48&amp;page=1</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -477,7 +477,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://www.auveco.com/api/cacheable/items?commercecategoryurl=/products/bodyhardware/boltsbodyhardware/bodybolts&amp;country=US&amp;currency=USD&amp;fieldset=search&amp;include=facets&amp;language=en&amp;pricelevel=1&amp;sort=commercecategory%3Adesc&amp;use_pcv=T</t>
+          <t>https://www.auveco.com/products/bodyhardware/boltsbodyhardware/bodybolts?show=48&amp;page=1</t>
         </is>
       </c>
       <c r="C3" t="n">
